--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_324__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_324__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5426,7 +5426,7 @@
                   <c:v>96.83139038085938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.37181854248047</c:v>
+                  <c:v>58.37182235717773</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28.20331382751465</c:v>
@@ -5459,16 +5459,16 @@
                   <c:v>78.90011596679688</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.69529342651367</c:v>
+                  <c:v>40.69529724121094</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>71.25947570800781</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.62454986572266</c:v>
+                  <c:v>72.62454223632812</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.69717121124268</c:v>
+                  <c:v>13.69717311859131</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>97.62802124023438</c:v>
@@ -5477,13 +5477,13 @@
                   <c:v>77.42506408691406</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.07952880859375</c:v>
+                  <c:v>58.07953643798828</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>64.31394195556641</c:v>
+                  <c:v>64.31394958496094</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.48778533935547</c:v>
+                  <c:v>55.48778915405273</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>89.69013977050781</c:v>
@@ -5498,7 +5498,7 @@
                   <c:v>90.13279724121094</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97.07000732421875</c:v>
+                  <c:v>97.07002258300781</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>65.75566864013672</c:v>
@@ -5507,7 +5507,7 @@
                   <c:v>98.42036437988281</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.11513900756836</c:v>
+                  <c:v>53.11514663696289</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>79.95892333984375</c:v>
@@ -5525,7 +5525,7 @@
                   <c:v>39.35805130004883</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.18836975097656</c:v>
+                  <c:v>89.18838500976562</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>97.00361633300781</c:v>
@@ -5543,19 +5543,19 @@
                   <c:v>87.43533325195312</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>85.3280029296875</c:v>
+                  <c:v>85.32798767089844</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>80.69914245605469</c:v>
+                  <c:v>80.69915771484375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90.25874328613281</c:v>
+                  <c:v>90.25872802734375</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>96.1605224609375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>84.840576171875</c:v>
+                  <c:v>84.84059143066406</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>97.20993041992188</c:v>
@@ -5576,7 +5576,7 @@
                   <c:v>74.2955322265625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>90.00521850585938</c:v>
+                  <c:v>90.00523376464844</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>55.75603103637695</c:v>
@@ -5603,10 +5603,10 @@
                   <c:v>97.85794067382812</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96.68849182128906</c:v>
+                  <c:v>96.68850708007812</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>97.29190063476562</c:v>
+                  <c:v>97.29191589355469</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>87.01058959960938</c:v>
@@ -5636,7 +5636,7 @@
                   <c:v>97.4874267578125</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.43220520019531</c:v>
+                  <c:v>97.43218994140625</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>28.51737976074219</c:v>
@@ -5648,7 +5648,7 @@
                   <c:v>86.74305725097656</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>57.85698318481445</c:v>
+                  <c:v>57.85697937011719</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>83.76431274414062</c:v>
@@ -5669,7 +5669,7 @@
                   <c:v>84.87591552734375</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>60.54227066040039</c:v>
+                  <c:v>60.54227447509766</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>89.66763305664062</c:v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>58.37181854248047</v>
+        <v>58.37182235717773</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6731,7 +6731,7 @@
         <v>40.3385</v>
       </c>
       <c r="F16">
-        <v>40.69529342651367</v>
+        <v>40.69529724121094</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>72.99850000000001</v>
       </c>
       <c r="F18">
-        <v>72.62454986572266</v>
+        <v>72.62454223632812</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>13.69717121124268</v>
+        <v>13.69717311859131</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>58.07952880859375</v>
+        <v>58.07953643798828</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>64.31394195556641</v>
+        <v>64.31394958496094</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>55.48778533935547</v>
+        <v>55.48778915405273</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>97.328</v>
       </c>
       <c r="F29">
-        <v>97.07000732421875</v>
+        <v>97.07002258300781</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>53.6367</v>
       </c>
       <c r="F32">
-        <v>53.11513900756836</v>
+        <v>53.11514663696289</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F38">
-        <v>89.18836975097656</v>
+        <v>89.18838500976562</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>84.637</v>
       </c>
       <c r="F44">
-        <v>85.3280029296875</v>
+        <v>85.32798767089844</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>78.7594</v>
       </c>
       <c r="F45">
-        <v>80.69914245605469</v>
+        <v>80.69915771484375</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>90.6163</v>
       </c>
       <c r="F46">
-        <v>90.25874328613281</v>
+        <v>90.25872802734375</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>82.63800000000001</v>
       </c>
       <c r="F48">
-        <v>84.840576171875</v>
+        <v>84.84059143066406</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>89.41589999999999</v>
       </c>
       <c r="F55">
-        <v>90.00521850585938</v>
+        <v>90.00523376464844</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>96.90470000000001</v>
       </c>
       <c r="F64">
-        <v>96.68849182128906</v>
+        <v>96.68850708007812</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>97.21169999999999</v>
       </c>
       <c r="F65">
-        <v>97.29190063476562</v>
+        <v>97.29191589355469</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>97.50060000000001</v>
       </c>
       <c r="F75">
-        <v>97.43220520019531</v>
+        <v>97.43218994140625</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>57.9591</v>
       </c>
       <c r="F79">
-        <v>57.85698318481445</v>
+        <v>57.85697937011719</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>59.665</v>
       </c>
       <c r="F86">
-        <v>60.54227066040039</v>
+        <v>60.54227447509766</v>
       </c>
     </row>
     <row r="87" spans="1:6">
